--- a/inst/extdata/CopyOfData/ulrich6.xlsx
+++ b/inst/extdata/CopyOfData/ulrich6.xlsx
@@ -1,40 +1,250 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonesb/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1940" windowWidth="33840" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="7420" yWindow="280" windowWidth="24180" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+  <si>
+    <t>Table 6.-Production, imports, exports, and consumption of hardwood timber products, by major product, 1950-87</t>
+  </si>
+  <si>
+    <t>[Million cubic feet, roundwood equivalent]</t>
+  </si>
+  <si>
+    <t>Industrial roundwood used for-</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Fuel-</t>
+  </si>
+  <si>
+    <t>All products</t>
+  </si>
+  <si>
+    <t>industial</t>
+  </si>
+  <si>
+    <t>wood-</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Plywood and veneer</t>
+  </si>
+  <si>
+    <t>Pulp products</t>
+  </si>
+  <si>
+    <r>
+      <t>products</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Logs</t>
+  </si>
+  <si>
+    <t>produc-</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>tion</t>
+  </si>
+  <si>
+    <t>Pro-</t>
+  </si>
+  <si>
+    <t>Con-</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>and con-</t>
+  </si>
+  <si>
+    <t>duc-</t>
+  </si>
+  <si>
+    <t>sump-</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <r>
+      <t>Imports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Exports</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Includes cooperage logs, poles and piling, fence posts, hewn ties, round mine</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTE: Data may not add to totals because of rounding.</t>
+  </si>
+  <si>
+    <t>timbers, box bolts, excelSior bolts, chemical wood, shingle bolts, and miscellaneous items.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Includes pulpwood and the pulpwood equivalent of woodpulp and paper and board. </t>
+    </r>
+  </si>
+  <si>
+    <t>Sources: Based on data published by the U.S. Departments of Commerce and Agriculture.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'Less than 2.5 million cubic feet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Preliminary.</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -53,13 +263,107 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,7 +421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -152,7 +456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -329,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -337,2713 +641,4409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:AD74"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="14"/>
+      <c r="T10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="5">
+        <v>1950</v>
+      </c>
+      <c r="B11" s="6">
         <v>3645</v>
       </c>
-      <c r="B1">
+      <c r="C11" s="10">
         <v>3740</v>
       </c>
-      <c r="C1">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
         <v>1915</v>
       </c>
-      <c r="D1">
+      <c r="F11" s="10">
         <v>125</v>
       </c>
-      <c r="E1">
+      <c r="G11" s="10">
         <v>30</v>
       </c>
-      <c r="F1">
+      <c r="H11" s="10">
         <v>2010</v>
       </c>
-      <c r="G1">
+      <c r="I11" s="10"/>
+      <c r="J11" s="11">
         <v>1130</v>
       </c>
-      <c r="H1">
+      <c r="K11" s="10">
         <v>45</v>
       </c>
-      <c r="I1">
+      <c r="L11" s="10">
         <v>15</v>
       </c>
-      <c r="J1">
+      <c r="M11" s="11">
         <v>1155</v>
       </c>
-      <c r="K1">
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
         <v>160</v>
       </c>
-      <c r="L1">
+      <c r="P11" s="10">
         <v>5</v>
       </c>
-      <c r="M1" s="1">
+      <c r="Q11" s="17">
         <v>-3</v>
       </c>
-      <c r="N1">
+      <c r="R11" s="6">
         <v>165</v>
       </c>
-      <c r="O1">
+      <c r="S11" s="6"/>
+      <c r="T11" s="11">
         <v>215</v>
       </c>
-      <c r="P1">
+      <c r="U11" s="10">
         <v>55</v>
       </c>
-      <c r="Q1">
+      <c r="V11" s="10">
         <v>5</v>
       </c>
-      <c r="R1">
+      <c r="W11" s="6">
         <v>260</v>
       </c>
-      <c r="S1">
+      <c r="X11" s="18"/>
+      <c r="Y11" s="11">
         <v>410</v>
       </c>
-      <c r="T1">
+      <c r="Z11" s="10">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="AA11" s="10">
         <v>5</v>
       </c>
-      <c r="V1">
+      <c r="AB11" s="6">
         <v>1730</v>
       </c>
-      <c r="W1">
+      <c r="AC11" s="19">
+        <f>(AA11)/E11</f>
         <v>2.6109660574412533E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="5">
+        <v>1951</v>
+      </c>
+      <c r="B12" s="6">
         <v>3750</v>
       </c>
-      <c r="B2">
+      <c r="C12" s="10">
         <v>3850</v>
       </c>
-      <c r="C2">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11">
         <v>2050</v>
       </c>
-      <c r="D2">
+      <c r="F12" s="10">
         <v>135</v>
       </c>
-      <c r="E2">
+      <c r="G12" s="10">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="H12" s="10">
         <v>2150</v>
       </c>
-      <c r="G2">
+      <c r="I12" s="10"/>
+      <c r="J12" s="11">
         <v>1180</v>
       </c>
-      <c r="H2">
+      <c r="K12" s="10">
         <v>40</v>
       </c>
-      <c r="I2">
+      <c r="L12" s="10">
         <v>20</v>
       </c>
-      <c r="J2">
+      <c r="M12" s="11">
         <v>1200</v>
       </c>
-      <c r="K2">
+      <c r="N12" s="11"/>
+      <c r="O12" s="11">
         <v>195</v>
       </c>
-      <c r="L2">
+      <c r="P12" s="10">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="Q12" s="17">
         <v>-3</v>
       </c>
-      <c r="N2">
+      <c r="R12" s="6">
         <v>200</v>
       </c>
-      <c r="O2">
+      <c r="S12" s="6"/>
+      <c r="T12" s="11">
         <v>280</v>
       </c>
-      <c r="P2">
+      <c r="U12" s="10">
         <v>65</v>
       </c>
-      <c r="Q2">
+      <c r="V12" s="10">
         <v>10</v>
       </c>
-      <c r="R2">
+      <c r="W12" s="6">
         <v>335</v>
       </c>
-      <c r="S2">
+      <c r="X12" s="18"/>
+      <c r="Y12" s="11">
         <v>390</v>
       </c>
-      <c r="T2">
+      <c r="Z12" s="10">
         <v>25</v>
       </c>
-      <c r="U2">
+      <c r="AA12" s="10">
         <v>5</v>
       </c>
-      <c r="V2">
+      <c r="AB12" s="6">
         <v>1700</v>
       </c>
-      <c r="W2">
+      <c r="AC12" s="19">
+        <f t="shared" ref="AC12:AC48" si="0">(AA12)/E12</f>
         <v>2.4390243902439024E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="5">
+        <v>1952</v>
+      </c>
+      <c r="B13" s="6">
         <v>3470</v>
       </c>
-      <c r="B3">
+      <c r="C13" s="10">
         <v>3540</v>
       </c>
-      <c r="C3">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11">
         <v>1935</v>
       </c>
-      <c r="D3">
+      <c r="F13" s="10">
         <v>115</v>
       </c>
-      <c r="E3">
+      <c r="G13" s="10">
         <v>40</v>
       </c>
-      <c r="F3">
+      <c r="H13" s="10">
         <v>2010</v>
       </c>
-      <c r="G3">
+      <c r="I13" s="10"/>
+      <c r="J13" s="11">
         <v>1105</v>
       </c>
-      <c r="H3">
+      <c r="K13" s="10">
         <v>35</v>
       </c>
-      <c r="I3">
+      <c r="L13" s="10">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="M13" s="11">
         <v>1115</v>
       </c>
-      <c r="K3">
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
         <v>185</v>
       </c>
-      <c r="L3">
+      <c r="P13" s="10">
         <v>10</v>
       </c>
-      <c r="M3" s="1">
+      <c r="Q13" s="17">
         <v>-3</v>
       </c>
-      <c r="N3">
+      <c r="R13" s="6">
         <v>195</v>
       </c>
-      <c r="O3">
+      <c r="S13" s="6"/>
+      <c r="T13" s="11">
         <v>270</v>
       </c>
-      <c r="P3">
+      <c r="U13" s="10">
         <v>60</v>
       </c>
-      <c r="Q3">
+      <c r="V13" s="10">
         <v>10</v>
       </c>
-      <c r="R3">
+      <c r="W13" s="6">
         <v>315</v>
       </c>
-      <c r="S3">
+      <c r="X13" s="18"/>
+      <c r="Y13" s="11">
         <v>370</v>
       </c>
-      <c r="T3">
+      <c r="Z13" s="10">
         <v>15</v>
       </c>
-      <c r="U3">
+      <c r="AA13" s="10">
         <v>5</v>
       </c>
-      <c r="V3">
+      <c r="AB13" s="6">
         <v>1530</v>
       </c>
-      <c r="W3">
+      <c r="AC13" s="19">
+        <f t="shared" si="0"/>
         <v>2.5839793281653748E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="5">
+        <v>1953</v>
+      </c>
+      <c r="B14" s="6">
         <v>3425</v>
       </c>
-      <c r="B4">
+      <c r="C14" s="10">
         <v>3520</v>
       </c>
-      <c r="C4">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11">
         <v>1950</v>
       </c>
-      <c r="D4">
+      <c r="F14" s="10">
         <v>130</v>
       </c>
-      <c r="E4">
+      <c r="G14" s="10">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="H14" s="10">
         <v>2045</v>
       </c>
-      <c r="G4">
+      <c r="I14" s="10"/>
+      <c r="J14" s="11">
         <v>1100</v>
       </c>
-      <c r="H4">
+      <c r="K14" s="10">
         <v>35</v>
       </c>
-      <c r="I4">
+      <c r="L14" s="10">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="M14" s="11">
         <v>1115</v>
       </c>
-      <c r="K4">
+      <c r="N14" s="11"/>
+      <c r="O14" s="11">
         <v>180</v>
       </c>
-      <c r="L4">
+      <c r="P14" s="10">
         <v>15</v>
       </c>
-      <c r="M4" s="1">
+      <c r="Q14" s="17">
         <v>-3</v>
       </c>
-      <c r="N4">
+      <c r="R14" s="6">
         <v>195</v>
       </c>
-      <c r="O4">
+      <c r="S14" s="6"/>
+      <c r="T14" s="11">
         <v>315</v>
       </c>
-      <c r="P4">
+      <c r="U14" s="10">
         <v>55</v>
       </c>
-      <c r="Q4">
+      <c r="V14" s="10">
         <v>10</v>
       </c>
-      <c r="R4">
+      <c r="W14" s="6">
         <v>360</v>
       </c>
-      <c r="S4">
+      <c r="X14" s="18"/>
+      <c r="Y14" s="11">
         <v>355</v>
       </c>
-      <c r="T4">
+      <c r="Z14" s="10">
         <v>20</v>
       </c>
-      <c r="U4">
+      <c r="AA14" s="10">
         <v>5</v>
       </c>
-      <c r="V4">
+      <c r="AB14" s="6">
         <v>1475</v>
       </c>
-      <c r="W4">
+      <c r="AC14" s="19">
+        <f t="shared" si="0"/>
         <v>2.5641025641025641E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="5">
+        <v>1954</v>
+      </c>
+      <c r="B15" s="6">
         <v>3365</v>
       </c>
-      <c r="B5">
+      <c r="C15" s="10">
         <v>3450</v>
       </c>
-      <c r="C5">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11">
         <v>1945</v>
       </c>
-      <c r="D5">
+      <c r="F15" s="10">
         <v>130</v>
       </c>
-      <c r="E5">
+      <c r="G15" s="10">
         <v>50</v>
       </c>
-      <c r="F5">
+      <c r="H15" s="10">
         <v>2030</v>
       </c>
-      <c r="G5">
+      <c r="I15" s="10"/>
+      <c r="J15" s="11">
         <v>1080</v>
       </c>
-      <c r="H5">
+      <c r="K15" s="10">
         <v>30</v>
       </c>
-      <c r="I5">
+      <c r="L15" s="10">
         <v>20</v>
       </c>
-      <c r="J5">
+      <c r="M15" s="11">
         <v>1095</v>
       </c>
-      <c r="K5">
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
         <v>165</v>
       </c>
-      <c r="L5">
+      <c r="P15" s="10">
         <v>30</v>
       </c>
-      <c r="M5" s="1">
+      <c r="Q15" s="17">
         <v>-3</v>
       </c>
-      <c r="N5">
+      <c r="R15" s="6">
         <v>190</v>
       </c>
-      <c r="O5">
+      <c r="S15" s="6"/>
+      <c r="T15" s="11">
         <v>350</v>
       </c>
-      <c r="P5">
+      <c r="U15" s="10">
         <v>55</v>
       </c>
-      <c r="Q5">
+      <c r="V15" s="10">
         <v>20</v>
       </c>
-      <c r="R5">
+      <c r="W15" s="6">
         <v>385</v>
       </c>
-      <c r="S5">
+      <c r="X15" s="18"/>
+      <c r="Y15" s="11">
         <v>345</v>
       </c>
-      <c r="T5">
+      <c r="Z15" s="10">
         <v>15</v>
       </c>
-      <c r="U5">
+      <c r="AA15" s="10">
         <v>5</v>
       </c>
-      <c r="V5">
+      <c r="AB15" s="6">
         <v>1420</v>
       </c>
-      <c r="W5">
+      <c r="AC15" s="19">
+        <f t="shared" si="0"/>
         <v>2.5706940874035988E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="5">
+        <v>1955</v>
+      </c>
+      <c r="B16" s="6">
         <v>3445</v>
       </c>
-      <c r="B6">
+      <c r="C16" s="10">
         <v>3535</v>
       </c>
-      <c r="C6">
+      <c r="D16" s="10"/>
+      <c r="E16" s="11">
         <v>2085</v>
       </c>
-      <c r="D6">
+      <c r="F16" s="10">
         <v>155</v>
       </c>
-      <c r="E6">
+      <c r="G16" s="10">
         <v>65</v>
       </c>
-      <c r="F6">
+      <c r="H16" s="10">
         <v>2175</v>
       </c>
-      <c r="G6">
+      <c r="I16" s="10"/>
+      <c r="J16" s="11">
         <v>1160</v>
       </c>
-      <c r="H6">
+      <c r="K16" s="10">
         <v>40</v>
       </c>
-      <c r="I6">
+      <c r="L16" s="10">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="M16" s="11">
         <v>1170</v>
       </c>
-      <c r="K6">
+      <c r="N16" s="11"/>
+      <c r="O16" s="11">
         <v>190</v>
       </c>
-      <c r="L6">
+      <c r="P16" s="10">
         <v>40</v>
       </c>
-      <c r="M6" s="1">
+      <c r="Q16" s="17">
         <v>-3</v>
       </c>
-      <c r="N6">
+      <c r="R16" s="6">
         <v>225</v>
       </c>
-      <c r="O6">
+      <c r="S16" s="6"/>
+      <c r="T16" s="11">
         <v>405</v>
       </c>
-      <c r="P6">
+      <c r="U16" s="10">
         <v>55</v>
       </c>
-      <c r="Q6">
+      <c r="V16" s="10">
         <v>30</v>
       </c>
-      <c r="R6">
+      <c r="W16" s="6">
         <v>430</v>
       </c>
-      <c r="S6">
+      <c r="X16" s="18"/>
+      <c r="Y16" s="11">
         <v>330</v>
       </c>
-      <c r="T6">
+      <c r="Z16" s="10">
         <v>20</v>
       </c>
-      <c r="U6">
+      <c r="AA16" s="10">
         <v>5</v>
       </c>
-      <c r="V6">
+      <c r="AB16" s="6">
         <v>1360</v>
       </c>
-      <c r="W6">
+      <c r="AC16" s="19">
+        <f t="shared" si="0"/>
         <v>2.3980815347721821E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="5">
+        <v>1956</v>
+      </c>
+      <c r="B17" s="6">
         <v>3485</v>
       </c>
-      <c r="B7">
+      <c r="C17" s="10">
         <v>3595</v>
       </c>
-      <c r="C7">
+      <c r="D17" s="10"/>
+      <c r="E17" s="11">
         <v>2185</v>
       </c>
-      <c r="D7">
+      <c r="F17" s="10">
         <v>175</v>
       </c>
-      <c r="E7">
+      <c r="G17" s="10">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="H17" s="10">
         <v>2295</v>
       </c>
-      <c r="G7">
+      <c r="I17" s="10"/>
+      <c r="J17" s="11">
         <v>1220</v>
       </c>
-      <c r="H7">
+      <c r="K17" s="10">
         <v>40</v>
       </c>
-      <c r="I7">
+      <c r="L17" s="10">
         <v>30</v>
       </c>
-      <c r="J7">
+      <c r="M17" s="11">
         <v>1230</v>
       </c>
-      <c r="K7">
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
         <v>190</v>
       </c>
-      <c r="L7">
+      <c r="P17" s="10">
         <v>45</v>
       </c>
-      <c r="M7" s="1">
+      <c r="Q17" s="17">
         <v>-3</v>
       </c>
-      <c r="N7">
+      <c r="R17" s="6">
         <v>235</v>
       </c>
-      <c r="O7">
+      <c r="S17" s="6"/>
+      <c r="T17" s="11">
         <v>455</v>
       </c>
-      <c r="P7">
+      <c r="U17" s="10">
         <v>70</v>
       </c>
-      <c r="Q7">
+      <c r="V17" s="10">
         <v>25</v>
       </c>
-      <c r="R7">
+      <c r="W17" s="6">
         <v>500</v>
       </c>
-      <c r="S7">
+      <c r="X17" s="18"/>
+      <c r="Y17" s="11">
         <v>310</v>
       </c>
-      <c r="T7">
+      <c r="Z17" s="10">
         <v>25</v>
       </c>
-      <c r="U7">
+      <c r="AA17" s="10">
         <v>5</v>
       </c>
-      <c r="V7">
+      <c r="AB17" s="6">
         <v>1300</v>
       </c>
-      <c r="W7">
+      <c r="AC17" s="19">
+        <f t="shared" si="0"/>
         <v>2.2883295194508009E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="5">
+        <v>1957</v>
+      </c>
+      <c r="B18" s="6">
         <v>3055</v>
       </c>
-      <c r="B8">
+      <c r="C18" s="10">
         <v>3150</v>
       </c>
-      <c r="C8">
+      <c r="D18" s="10"/>
+      <c r="E18" s="11">
         <v>1820</v>
       </c>
-      <c r="D8">
+      <c r="F18" s="10">
         <v>165</v>
       </c>
-      <c r="E8">
+      <c r="G18" s="10">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="H18" s="10">
         <v>1915</v>
       </c>
-      <c r="G8">
+      <c r="I18" s="10"/>
+      <c r="J18" s="11">
         <v>890</v>
       </c>
-      <c r="H8">
+      <c r="K18" s="10">
         <v>40</v>
       </c>
-      <c r="I8">
+      <c r="L18" s="10">
         <v>30</v>
       </c>
-      <c r="J8">
+      <c r="M18" s="11">
         <v>895</v>
       </c>
-      <c r="K8">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11">
         <v>165</v>
       </c>
-      <c r="L8">
+      <c r="P18" s="10">
         <v>45</v>
       </c>
-      <c r="M8" s="1">
+      <c r="Q18" s="17">
         <v>-3</v>
       </c>
-      <c r="N8">
+      <c r="R18" s="6">
         <v>210</v>
       </c>
-      <c r="O8">
+      <c r="S18" s="6"/>
+      <c r="T18" s="11">
         <v>465</v>
       </c>
-      <c r="P8">
+      <c r="U18" s="10">
         <v>60</v>
       </c>
-      <c r="Q8">
+      <c r="V18" s="10">
         <v>30</v>
       </c>
-      <c r="R8">
+      <c r="W18" s="6">
         <v>495</v>
       </c>
-      <c r="S8">
+      <c r="X18" s="18"/>
+      <c r="Y18" s="11">
         <v>295</v>
       </c>
-      <c r="T8">
+      <c r="Z18" s="10">
         <v>15</v>
       </c>
-      <c r="U8">
+      <c r="AA18" s="10">
         <v>5</v>
       </c>
-      <c r="V8">
+      <c r="AB18" s="6">
         <v>1235</v>
       </c>
-      <c r="W8">
+      <c r="AC18" s="19">
+        <f t="shared" si="0"/>
         <v>2.7472527472527475E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="5">
+        <v>1958</v>
+      </c>
+      <c r="B19" s="6">
         <v>2975</v>
       </c>
-      <c r="B9">
+      <c r="C19" s="10">
         <v>3070</v>
       </c>
-      <c r="C9">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11">
         <v>1800</v>
       </c>
-      <c r="D9">
+      <c r="F19" s="10">
         <v>155</v>
       </c>
-      <c r="E9">
+      <c r="G19" s="10">
         <v>65</v>
       </c>
-      <c r="F9">
+      <c r="H19" s="10">
         <v>1895</v>
       </c>
-      <c r="G9">
+      <c r="I19" s="10"/>
+      <c r="J19" s="11">
         <v>920</v>
       </c>
-      <c r="H9">
+      <c r="K19" s="10">
         <v>35</v>
       </c>
-      <c r="I9">
+      <c r="L19" s="10">
         <v>25</v>
       </c>
-      <c r="J9">
+      <c r="M19" s="11">
         <v>925</v>
       </c>
-      <c r="K9">
+      <c r="N19" s="11"/>
+      <c r="O19" s="11">
         <v>155</v>
       </c>
-      <c r="L9">
+      <c r="P19" s="10">
         <v>50</v>
       </c>
-      <c r="M9" s="1">
+      <c r="Q19" s="17">
         <v>-3</v>
       </c>
-      <c r="N9">
+      <c r="R19" s="6">
         <v>205</v>
       </c>
-      <c r="O9">
+      <c r="S19" s="6"/>
+      <c r="T19" s="11">
         <v>435</v>
       </c>
-      <c r="P9">
+      <c r="U19" s="10">
         <v>55</v>
       </c>
-      <c r="Q9">
+      <c r="V19" s="10">
         <v>30</v>
       </c>
-      <c r="R9">
+      <c r="W19" s="6">
         <v>460</v>
       </c>
-      <c r="S9">
+      <c r="X19" s="18"/>
+      <c r="Y19" s="11">
         <v>285</v>
       </c>
-      <c r="T9">
+      <c r="Z19" s="10">
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="AA19" s="10">
         <v>10</v>
       </c>
-      <c r="V9">
+      <c r="AB19" s="6">
         <v>1175</v>
       </c>
-      <c r="W9">
+      <c r="AC19" s="19">
+        <f t="shared" si="0"/>
         <v>5.5555555555555558E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="5">
+        <v>1959</v>
+      </c>
+      <c r="B20" s="6">
         <v>3120</v>
       </c>
-      <c r="B10">
+      <c r="C20" s="10">
         <v>3245</v>
       </c>
-      <c r="C10">
+      <c r="D20" s="10"/>
+      <c r="E20" s="11">
         <v>2010</v>
       </c>
-      <c r="D10">
+      <c r="F20" s="10">
         <v>200</v>
       </c>
-      <c r="E10">
+      <c r="G20" s="10">
         <v>75</v>
       </c>
-      <c r="F10">
+      <c r="H20" s="10">
         <v>2135</v>
       </c>
-      <c r="G10">
+      <c r="I20" s="10"/>
+      <c r="J20" s="11">
         <v>1020</v>
       </c>
-      <c r="H10">
+      <c r="K20" s="10">
         <v>50</v>
       </c>
-      <c r="I10">
+      <c r="L20" s="10">
         <v>25</v>
       </c>
-      <c r="J10">
+      <c r="M20" s="11">
         <v>1040</v>
       </c>
-      <c r="K10">
+      <c r="N20" s="11"/>
+      <c r="O20" s="11">
         <v>160</v>
       </c>
-      <c r="L10">
+      <c r="P20" s="10">
         <v>75</v>
       </c>
-      <c r="M10" s="1">
+      <c r="Q20" s="17">
         <v>-3</v>
       </c>
-      <c r="N10">
+      <c r="R20" s="6">
         <v>240</v>
       </c>
-      <c r="O10">
+      <c r="S20" s="6"/>
+      <c r="T20" s="11">
         <v>555</v>
       </c>
-      <c r="P10">
+      <c r="U20" s="10">
         <v>60</v>
       </c>
-      <c r="Q10">
+      <c r="V20" s="10">
         <v>35</v>
       </c>
-      <c r="R10">
+      <c r="W20" s="6">
         <v>580</v>
       </c>
-      <c r="S10">
+      <c r="X20" s="18"/>
+      <c r="Y20" s="11">
         <v>265</v>
       </c>
-      <c r="T10">
+      <c r="Z20" s="10">
         <v>15</v>
       </c>
-      <c r="U10">
+      <c r="AA20" s="10">
         <v>5</v>
       </c>
-      <c r="V10">
+      <c r="AB20" s="6">
         <v>1110</v>
       </c>
-      <c r="W10">
+      <c r="AC20" s="19">
+        <f t="shared" si="0"/>
         <v>2.4875621890547263E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="5">
+        <v>1960</v>
+      </c>
+      <c r="B21" s="6">
         <v>3040</v>
       </c>
-      <c r="B11">
+      <c r="C21" s="10">
         <v>3125</v>
       </c>
-      <c r="C11">
+      <c r="D21" s="10"/>
+      <c r="E21" s="11">
         <v>1995</v>
       </c>
-      <c r="D11">
+      <c r="F21" s="10">
         <v>180</v>
       </c>
-      <c r="E11">
+      <c r="G21" s="10">
         <v>90</v>
       </c>
-      <c r="F11">
+      <c r="H21" s="10">
         <v>2080</v>
       </c>
-      <c r="G11">
+      <c r="I21" s="10"/>
+      <c r="J21" s="11">
         <v>955</v>
       </c>
-      <c r="H11">
+      <c r="K21" s="10">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="L21" s="10">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="M21" s="11">
         <v>975</v>
       </c>
-      <c r="K11">
+      <c r="N21" s="11"/>
+      <c r="O21" s="11">
         <v>155</v>
       </c>
-      <c r="L11">
+      <c r="P21" s="10">
         <v>60</v>
       </c>
-      <c r="M11" s="1">
+      <c r="Q21" s="17">
         <v>-3</v>
       </c>
-      <c r="N11">
+      <c r="R21" s="6">
         <v>215</v>
       </c>
-      <c r="O11">
+      <c r="S21" s="6"/>
+      <c r="T21" s="11">
         <v>615</v>
       </c>
-      <c r="P11">
+      <c r="U21" s="10">
         <v>60</v>
       </c>
-      <c r="Q11">
+      <c r="V21" s="10">
         <v>55</v>
       </c>
-      <c r="R11">
+      <c r="W21" s="6">
         <v>625</v>
       </c>
-      <c r="S11">
+      <c r="X21" s="18"/>
+      <c r="Y21" s="11">
         <v>255</v>
       </c>
-      <c r="T11">
+      <c r="Z21" s="10">
         <v>15</v>
       </c>
-      <c r="U11">
+      <c r="AA21" s="10">
         <v>10</v>
       </c>
-      <c r="V11">
+      <c r="AB21" s="6">
         <v>1045</v>
       </c>
-      <c r="W11">
+      <c r="AC21" s="19">
+        <f t="shared" si="0"/>
         <v>5.0125313283208017E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="5">
+        <v>1961</v>
+      </c>
+      <c r="B22" s="6">
         <v>2920</v>
       </c>
-      <c r="B12">
+      <c r="C22" s="10">
         <v>2985</v>
       </c>
-      <c r="C12">
+      <c r="D22" s="10"/>
+      <c r="E22" s="11">
         <v>1935</v>
       </c>
-      <c r="D12">
+      <c r="F22" s="10">
         <v>165</v>
       </c>
-      <c r="E12">
+      <c r="G22" s="10">
         <v>95</v>
       </c>
-      <c r="F12">
+      <c r="H22" s="10">
         <v>2000</v>
       </c>
-      <c r="G12">
+      <c r="I22" s="10"/>
+      <c r="J22" s="11">
         <v>910</v>
       </c>
-      <c r="H12">
+      <c r="K22" s="10">
         <v>35</v>
       </c>
-      <c r="I12">
+      <c r="L22" s="10">
         <v>25</v>
       </c>
-      <c r="J12">
+      <c r="M22" s="11">
         <v>925</v>
       </c>
-      <c r="K12">
+      <c r="N22" s="11"/>
+      <c r="O22" s="11">
         <v>150</v>
       </c>
-      <c r="L12">
+      <c r="P22" s="10">
         <v>60</v>
       </c>
-      <c r="M12" s="1">
+      <c r="Q22" s="17">
         <v>-3</v>
       </c>
-      <c r="N12">
+      <c r="R22" s="6">
         <v>210</v>
       </c>
-      <c r="O12">
+      <c r="S22" s="6"/>
+      <c r="T22" s="11">
         <v>625</v>
       </c>
-      <c r="P12">
+      <c r="U22" s="10">
         <v>60</v>
       </c>
-      <c r="Q12">
+      <c r="V22" s="10">
         <v>60</v>
       </c>
-      <c r="R12">
+      <c r="W22" s="6">
         <v>620</v>
       </c>
-      <c r="S12">
+      <c r="X22" s="18"/>
+      <c r="Y22" s="11">
         <v>240</v>
       </c>
-      <c r="T12">
+      <c r="Z22" s="10">
         <v>10</v>
       </c>
-      <c r="U12">
+      <c r="AA22" s="10">
         <v>10</v>
       </c>
-      <c r="V12">
+      <c r="AB22" s="6">
         <v>985</v>
       </c>
-      <c r="W12">
+      <c r="AC22" s="19">
+        <f t="shared" si="0"/>
         <v>5.1679586563307496E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="5">
+        <v>1962</v>
+      </c>
+      <c r="B23" s="6">
         <v>2970</v>
       </c>
-      <c r="B13">
+      <c r="C23" s="10">
         <v>3075</v>
       </c>
-      <c r="C13">
+      <c r="D23" s="10"/>
+      <c r="E23" s="11">
         <v>2055</v>
       </c>
-      <c r="D13">
+      <c r="F23" s="10">
         <v>205</v>
       </c>
-      <c r="E13">
+      <c r="G23" s="10">
         <v>100</v>
       </c>
-      <c r="F13">
+      <c r="H23" s="10">
         <v>2160</v>
       </c>
-      <c r="G13">
+      <c r="I23" s="10"/>
+      <c r="J23" s="11">
         <v>970</v>
       </c>
-      <c r="H13">
+      <c r="K23" s="10">
         <v>45</v>
       </c>
-      <c r="I13">
+      <c r="L23" s="10">
         <v>20</v>
       </c>
-      <c r="J13">
+      <c r="M23" s="11">
         <v>1000</v>
       </c>
-      <c r="K13">
+      <c r="N23" s="11"/>
+      <c r="O23" s="11">
         <v>150</v>
       </c>
-      <c r="L13">
+      <c r="P23" s="10">
         <v>75</v>
       </c>
-      <c r="M13" s="1">
+      <c r="Q23" s="17">
         <v>-3</v>
       </c>
-      <c r="N13">
+      <c r="R23" s="6">
         <v>220</v>
       </c>
-      <c r="O13">
+      <c r="S23" s="6"/>
+      <c r="T23" s="11">
         <v>695</v>
       </c>
-      <c r="P13">
+      <c r="U23" s="10">
         <v>70</v>
       </c>
-      <c r="Q13">
+      <c r="V23" s="10">
         <v>65</v>
       </c>
-      <c r="R13">
+      <c r="W23" s="6">
         <v>700</v>
       </c>
-      <c r="S13">
+      <c r="X23" s="18"/>
+      <c r="Y23" s="11">
         <v>225</v>
       </c>
-      <c r="T13">
+      <c r="Z23" s="10">
         <v>10</v>
       </c>
-      <c r="U13">
+      <c r="AA23" s="10">
         <v>15</v>
       </c>
-      <c r="V13">
+      <c r="AB23" s="6">
         <v>915</v>
       </c>
-      <c r="W13">
+      <c r="AC23" s="19">
+        <f t="shared" si="0"/>
         <v>7.2992700729927005E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="5">
+        <v>1963</v>
+      </c>
+      <c r="B24" s="6">
         <v>3085</v>
       </c>
-      <c r="B14">
+      <c r="C24" s="10">
         <v>3180</v>
       </c>
-      <c r="C14">
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
         <v>2230</v>
       </c>
-      <c r="D14">
+      <c r="F24" s="10">
         <v>210</v>
       </c>
-      <c r="E14">
+      <c r="G24" s="10">
         <v>110</v>
       </c>
-      <c r="F14">
+      <c r="H24" s="10">
         <v>2325</v>
       </c>
-      <c r="G14">
+      <c r="I24" s="10"/>
+      <c r="J24" s="11">
         <v>1095</v>
       </c>
-      <c r="H14">
+      <c r="K24" s="10">
         <v>45</v>
       </c>
-      <c r="I14">
+      <c r="L24" s="10">
         <v>20</v>
       </c>
-      <c r="J14">
+      <c r="M24" s="11">
         <v>1120</v>
       </c>
-      <c r="K14">
+      <c r="N24" s="11"/>
+      <c r="O24" s="11">
         <v>145</v>
       </c>
-      <c r="L14">
+      <c r="P24" s="10">
         <v>80</v>
       </c>
-      <c r="M14" s="1">
+      <c r="Q24" s="17">
         <v>-3</v>
       </c>
-      <c r="N14">
+      <c r="R24" s="6">
         <v>225</v>
       </c>
-      <c r="O14">
+      <c r="S24" s="6"/>
+      <c r="T24" s="11">
         <v>735</v>
       </c>
-      <c r="P14">
+      <c r="U24" s="10">
         <v>70</v>
       </c>
-      <c r="Q14">
+      <c r="V24" s="10">
         <v>75</v>
       </c>
-      <c r="R14">
+      <c r="W24" s="6">
         <v>730</v>
       </c>
-      <c r="S14">
+      <c r="X24" s="18"/>
+      <c r="Y24" s="11">
         <v>245</v>
       </c>
-      <c r="T14">
+      <c r="Z24" s="10">
         <v>10</v>
       </c>
-      <c r="U14">
+      <c r="AA24" s="10">
         <v>15</v>
       </c>
-      <c r="V14">
+      <c r="AB24" s="6">
         <v>855</v>
       </c>
-      <c r="W14">
+      <c r="AC24" s="19">
+        <f t="shared" si="0"/>
         <v>6.7264573991031393E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="5">
+        <v>1964</v>
+      </c>
+      <c r="B25" s="6">
         <v>3145</v>
       </c>
-      <c r="B15">
+      <c r="C25" s="10">
         <v>3240</v>
       </c>
-      <c r="C15">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11">
         <v>2350</v>
       </c>
-      <c r="D15">
+      <c r="F25" s="10">
         <v>225</v>
       </c>
-      <c r="E15">
+      <c r="G25" s="10">
         <v>125</v>
       </c>
-      <c r="F15">
+      <c r="H25" s="10">
         <v>2445</v>
       </c>
-      <c r="G15">
+      <c r="I25" s="10"/>
+      <c r="J25" s="11">
         <v>1110</v>
       </c>
-      <c r="H15">
+      <c r="K25" s="10">
         <v>45</v>
       </c>
-      <c r="I15">
+      <c r="L25" s="10">
         <v>20</v>
       </c>
-      <c r="J15">
+      <c r="M25" s="11">
         <v>1135</v>
       </c>
-      <c r="K15">
+      <c r="N25" s="11"/>
+      <c r="O25" s="11">
         <v>160</v>
       </c>
-      <c r="L15">
+      <c r="P25" s="10">
         <v>90</v>
       </c>
-      <c r="M15">
+      <c r="Q25" s="10">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="R25" s="6">
         <v>245</v>
       </c>
-      <c r="O15">
+      <c r="S25" s="6"/>
+      <c r="T25" s="11">
         <v>815</v>
       </c>
-      <c r="P15">
+      <c r="U25" s="10">
         <v>75</v>
       </c>
-      <c r="Q15">
+      <c r="V25" s="10">
         <v>90</v>
       </c>
-      <c r="R15">
+      <c r="W25" s="6">
         <v>800</v>
       </c>
-      <c r="S15">
+      <c r="X25" s="18"/>
+      <c r="Y25" s="11">
         <v>255</v>
       </c>
-      <c r="T15">
+      <c r="Z25" s="10">
         <v>10</v>
       </c>
-      <c r="U15">
+      <c r="AA25" s="10">
         <v>10</v>
       </c>
-      <c r="V15">
+      <c r="AB25" s="6">
         <v>795</v>
       </c>
-      <c r="W15">
+      <c r="AC25" s="19">
+        <f t="shared" si="0"/>
         <v>4.2553191489361703E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="5">
+        <v>1965</v>
+      </c>
+      <c r="B26" s="6">
         <v>3165</v>
       </c>
-      <c r="B16">
+      <c r="C26" s="10">
         <v>3280</v>
       </c>
-      <c r="C16">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11">
         <v>2430</v>
       </c>
-      <c r="D16">
+      <c r="F26" s="10">
         <v>240</v>
       </c>
-      <c r="E16">
+      <c r="G26" s="10">
         <v>125</v>
       </c>
-      <c r="F16">
+      <c r="H26" s="10">
         <v>2545</v>
       </c>
-      <c r="G16">
+      <c r="I26" s="10"/>
+      <c r="J26" s="11">
         <v>1140</v>
       </c>
-      <c r="H16">
+      <c r="K26" s="10">
         <v>50</v>
       </c>
-      <c r="I16">
+      <c r="L26" s="10">
         <v>20</v>
       </c>
-      <c r="J16">
+      <c r="M26" s="11">
         <v>1170</v>
       </c>
-      <c r="K16">
+      <c r="N26" s="11"/>
+      <c r="O26" s="11">
         <v>160</v>
       </c>
-      <c r="L16">
+      <c r="P26" s="10">
         <v>100</v>
       </c>
-      <c r="M16" s="1">
+      <c r="Q26" s="17">
         <v>-3</v>
       </c>
-      <c r="N16">
+      <c r="R26" s="6">
         <v>255</v>
       </c>
-      <c r="O16">
+      <c r="S26" s="6"/>
+      <c r="T26" s="11">
         <v>855</v>
       </c>
-      <c r="P16">
+      <c r="U26" s="10">
         <v>80</v>
       </c>
-      <c r="Q16">
+      <c r="V26" s="10">
         <v>90</v>
       </c>
-      <c r="R16">
+      <c r="W26" s="6">
         <v>850</v>
       </c>
-      <c r="S16">
+      <c r="X26" s="18"/>
+      <c r="Y26" s="11">
         <v>260</v>
       </c>
-      <c r="T16">
+      <c r="Z26" s="10">
         <v>10</v>
       </c>
-      <c r="U16">
+      <c r="AA26" s="10">
         <v>15</v>
       </c>
-      <c r="V16">
+      <c r="AB26" s="6">
         <v>735</v>
       </c>
-      <c r="W16">
+      <c r="AC26" s="19">
+        <f t="shared" si="0"/>
         <v>6.1728395061728392E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="5">
+        <v>1966</v>
+      </c>
+      <c r="B27" s="6">
         <v>3200</v>
       </c>
-      <c r="B17">
+      <c r="C27" s="10">
         <v>3340</v>
       </c>
-      <c r="C17">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11">
         <v>2525</v>
       </c>
-      <c r="D17">
+      <c r="F27" s="10">
         <v>275</v>
       </c>
-      <c r="E17">
+      <c r="G27" s="10">
         <v>135</v>
       </c>
-      <c r="F17">
+      <c r="H27" s="10">
         <v>2665</v>
       </c>
-      <c r="G17">
+      <c r="I27" s="10"/>
+      <c r="J27" s="11">
         <v>1180</v>
       </c>
-      <c r="H17">
+      <c r="K27" s="10">
         <v>65</v>
       </c>
-      <c r="I17">
+      <c r="L27" s="10">
         <v>25</v>
       </c>
-      <c r="J17">
+      <c r="M27" s="11">
         <v>1220</v>
       </c>
-      <c r="K17">
+      <c r="N27" s="11"/>
+      <c r="O27" s="11">
         <v>135</v>
       </c>
-      <c r="L17">
+      <c r="P27" s="10">
         <v>110</v>
       </c>
-      <c r="M17" s="1">
+      <c r="Q27" s="17">
         <v>-3</v>
       </c>
-      <c r="N17">
+      <c r="R27" s="6">
         <v>240</v>
       </c>
-      <c r="O17">
+      <c r="S27" s="6"/>
+      <c r="T27" s="11">
         <v>945</v>
       </c>
-      <c r="P17">
+      <c r="U27" s="10">
         <v>90</v>
       </c>
-      <c r="Q17">
+      <c r="V27" s="10">
         <v>100</v>
       </c>
-      <c r="R17">
+      <c r="W27" s="6">
         <v>935</v>
       </c>
-      <c r="S17">
+      <c r="X27" s="18"/>
+      <c r="Y27" s="11">
         <v>255</v>
       </c>
-      <c r="T17">
+      <c r="Z27" s="10">
         <v>10</v>
       </c>
-      <c r="U17">
+      <c r="AA27" s="10">
         <v>15</v>
       </c>
-      <c r="V17">
+      <c r="AB27" s="6">
         <v>675</v>
       </c>
-      <c r="W17">
+      <c r="AC27" s="19">
+        <f t="shared" si="0"/>
         <v>5.9405940594059407E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="5">
+        <v>1967</v>
+      </c>
+      <c r="B28" s="6">
         <v>3035</v>
       </c>
-      <c r="B18">
+      <c r="C28" s="10">
         <v>3120</v>
       </c>
-      <c r="C18">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11">
         <v>2415</v>
       </c>
-      <c r="D18">
+      <c r="F28" s="10">
         <v>240</v>
       </c>
-      <c r="E18">
+      <c r="G28" s="10">
         <v>150</v>
       </c>
-      <c r="F18">
+      <c r="H28" s="10">
         <v>2500</v>
       </c>
-      <c r="G18">
+      <c r="I28" s="10"/>
+      <c r="J28" s="11">
         <v>1135</v>
       </c>
-      <c r="H18">
+      <c r="K28" s="10">
         <v>50</v>
       </c>
-      <c r="I18">
+      <c r="L28" s="10">
         <v>25</v>
       </c>
-      <c r="J18">
+      <c r="M28" s="11">
         <v>1160</v>
       </c>
-      <c r="K18">
+      <c r="N28" s="11"/>
+      <c r="O28" s="11">
         <v>130</v>
       </c>
-      <c r="L18">
+      <c r="P28" s="10">
         <v>105</v>
       </c>
-      <c r="M18" s="1">
+      <c r="Q28" s="17">
         <v>-3</v>
       </c>
-      <c r="N18">
+      <c r="R28" s="6">
         <v>235</v>
       </c>
-      <c r="O18">
+      <c r="S28" s="6"/>
+      <c r="T28" s="11">
         <v>905</v>
       </c>
-      <c r="P18">
+      <c r="U28" s="10">
         <v>70</v>
       </c>
-      <c r="Q18">
+      <c r="V28" s="10">
         <v>105</v>
       </c>
-      <c r="R18">
+      <c r="W28" s="6">
         <v>870</v>
       </c>
-      <c r="S18">
+      <c r="X28" s="18"/>
+      <c r="Y28" s="11">
         <v>230</v>
       </c>
-      <c r="T18">
+      <c r="Z28" s="10">
         <v>10</v>
       </c>
-      <c r="U18">
+      <c r="AA28" s="10">
         <v>20</v>
       </c>
-      <c r="V18">
+      <c r="AB28" s="6">
         <v>620</v>
       </c>
-      <c r="W18">
+      <c r="AC28" s="19">
+        <f t="shared" si="0"/>
         <v>8.2815734989648039E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="5">
+        <v>1968</v>
+      </c>
+      <c r="B29" s="6">
         <v>2970</v>
       </c>
-      <c r="B19">
+      <c r="C29" s="10">
         <v>3115</v>
       </c>
-      <c r="C19">
+      <c r="D29" s="10"/>
+      <c r="E29" s="11">
         <v>2410</v>
       </c>
-      <c r="D19">
+      <c r="F29" s="10">
         <v>305</v>
       </c>
-      <c r="E19">
+      <c r="G29" s="10">
         <v>160</v>
       </c>
-      <c r="F19">
+      <c r="H29" s="10">
         <v>2555</v>
       </c>
-      <c r="G19">
+      <c r="I29" s="10"/>
+      <c r="J29" s="11">
         <v>1095</v>
       </c>
-      <c r="H19">
+      <c r="K29" s="10">
         <v>55</v>
       </c>
-      <c r="I19">
+      <c r="L29" s="10">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="M29" s="11">
         <v>1130</v>
       </c>
-      <c r="K19">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11">
         <v>135</v>
       </c>
-      <c r="L19">
+      <c r="P29" s="10">
         <v>160</v>
       </c>
-      <c r="M19">
+      <c r="Q29" s="10">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="R29" s="6">
         <v>295</v>
       </c>
-      <c r="O19">
+      <c r="S29" s="6"/>
+      <c r="T29" s="11">
         <v>940</v>
       </c>
-      <c r="P19">
+      <c r="U29" s="10">
         <v>85</v>
       </c>
-      <c r="Q19">
+      <c r="V29" s="10">
         <v>125</v>
       </c>
-      <c r="R19">
+      <c r="W29" s="6">
         <v>900</v>
       </c>
-      <c r="S19">
+      <c r="X29" s="18"/>
+      <c r="Y29" s="11">
         <v>220</v>
       </c>
-      <c r="T19">
+      <c r="Z29" s="10">
         <v>10</v>
       </c>
-      <c r="U19">
+      <c r="AA29" s="10">
         <v>20</v>
       </c>
-      <c r="V19">
+      <c r="AB29" s="6">
         <v>560</v>
       </c>
-      <c r="W19">
+      <c r="AC29" s="19">
+        <f t="shared" si="0"/>
         <v>8.2987551867219917E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="5">
+        <v>1969</v>
+      </c>
+      <c r="B30" s="6">
         <v>3025</v>
       </c>
-      <c r="B20">
+      <c r="C30" s="10">
         <v>3220</v>
       </c>
-      <c r="C20">
+      <c r="D30" s="10"/>
+      <c r="E30" s="11">
         <v>2530</v>
       </c>
-      <c r="D20">
+      <c r="F30" s="10">
         <v>370</v>
       </c>
-      <c r="E20">
+      <c r="G30" s="10">
         <v>175</v>
       </c>
-      <c r="F20">
+      <c r="H30" s="10">
         <v>2725</v>
       </c>
-      <c r="G20">
+      <c r="I30" s="10"/>
+      <c r="J30" s="11">
         <v>1140</v>
       </c>
-      <c r="H20">
+      <c r="K30" s="10">
         <v>70</v>
       </c>
-      <c r="I20">
+      <c r="L30" s="10">
         <v>20</v>
       </c>
-      <c r="J20">
+      <c r="M30" s="11">
         <v>1190</v>
       </c>
-      <c r="K20">
+      <c r="N30" s="11"/>
+      <c r="O30" s="11">
         <v>130</v>
       </c>
-      <c r="L20">
+      <c r="P30" s="10">
         <v>175</v>
       </c>
-      <c r="M20">
+      <c r="Q30" s="10">
         <v>5</v>
       </c>
-      <c r="N20">
+      <c r="R30" s="6">
         <v>300</v>
       </c>
-      <c r="O20">
+      <c r="S30" s="6"/>
+      <c r="T30" s="11">
         <v>1045</v>
       </c>
-      <c r="P20">
+      <c r="U30" s="10">
         <v>120</v>
       </c>
-      <c r="Q20">
+      <c r="V30" s="10">
         <v>140</v>
       </c>
-      <c r="R20">
+      <c r="W30" s="6">
         <v>1025</v>
       </c>
-      <c r="S20">
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11">
         <v>205</v>
       </c>
-      <c r="T20">
+      <c r="Z30" s="10">
         <v>10</v>
       </c>
-      <c r="U20">
+      <c r="AA30" s="10">
         <v>15</v>
       </c>
-      <c r="V20">
+      <c r="AB30" s="6">
         <v>495</v>
       </c>
-      <c r="W20">
+      <c r="AC30" s="19">
+        <f t="shared" si="0"/>
         <v>5.9288537549407111E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="5">
+        <v>1970</v>
+      </c>
+      <c r="B31" s="6">
         <v>2900</v>
       </c>
-      <c r="B21">
+      <c r="C31" s="10">
         <v>3000</v>
       </c>
-      <c r="C21">
+      <c r="D31" s="10"/>
+      <c r="E31" s="11">
         <v>2470</v>
       </c>
-      <c r="D21">
+      <c r="F31" s="10">
         <v>310</v>
       </c>
-      <c r="E21">
+      <c r="G31" s="10">
         <v>210</v>
       </c>
-      <c r="F21">
+      <c r="H31" s="10">
         <v>2565</v>
       </c>
-      <c r="G21">
+      <c r="I31" s="10"/>
+      <c r="J31" s="11">
         <v>1090</v>
       </c>
-      <c r="H21">
+      <c r="K31" s="10">
         <v>50</v>
       </c>
-      <c r="I21">
+      <c r="L31" s="10">
         <v>20</v>
       </c>
-      <c r="J21">
+      <c r="M31" s="11">
         <v>1120</v>
       </c>
-      <c r="K21">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11">
         <v>125</v>
       </c>
-      <c r="L21">
+      <c r="P31" s="10">
         <v>165</v>
       </c>
-      <c r="M21">
+      <c r="Q31" s="10">
         <v>5</v>
       </c>
-      <c r="N21">
+      <c r="R31" s="6">
         <v>280</v>
       </c>
-      <c r="O21">
+      <c r="S31" s="6"/>
+      <c r="T31" s="11">
         <v>1050</v>
       </c>
-      <c r="P21">
+      <c r="U31" s="10">
         <v>85</v>
       </c>
-      <c r="Q21">
+      <c r="V31" s="10">
         <v>170</v>
       </c>
-      <c r="R21">
+      <c r="W31" s="6">
         <v>965</v>
       </c>
-      <c r="S21">
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11">
         <v>195</v>
       </c>
-      <c r="T21">
+      <c r="Z31" s="10">
         <v>5</v>
       </c>
-      <c r="U21">
+      <c r="AA31" s="10">
         <v>15</v>
       </c>
-      <c r="V21">
+      <c r="AB31" s="6">
         <v>430</v>
       </c>
-      <c r="W21">
+      <c r="AC31" s="19">
+        <f t="shared" si="0"/>
         <v>6.0728744939271256E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="5">
+        <v>1971</v>
+      </c>
+      <c r="B32" s="6">
         <v>2820</v>
       </c>
-      <c r="B22">
+      <c r="C32" s="10">
         <v>2980</v>
       </c>
-      <c r="C22">
+      <c r="D32" s="10"/>
+      <c r="E32" s="11">
         <v>2420</v>
       </c>
-      <c r="D22">
+      <c r="F32" s="10">
         <v>350</v>
       </c>
-      <c r="E22">
+      <c r="G32" s="10">
         <v>190</v>
       </c>
-      <c r="F22">
+      <c r="H32" s="10">
         <v>2580</v>
       </c>
-      <c r="G22">
+      <c r="I32" s="10"/>
+      <c r="J32" s="11">
         <v>1060</v>
       </c>
-      <c r="H22">
+      <c r="K32" s="10">
         <v>55</v>
       </c>
-      <c r="I22">
+      <c r="L32" s="10">
         <v>25</v>
       </c>
-      <c r="J22">
+      <c r="M32" s="11">
         <v>1090</v>
       </c>
-      <c r="K22">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11">
         <v>130</v>
       </c>
-      <c r="L22">
+      <c r="P32" s="10">
         <v>205</v>
       </c>
-      <c r="M22">
+      <c r="Q32" s="10">
         <v>5</v>
       </c>
-      <c r="N22">
+      <c r="R32" s="6">
         <v>335</v>
       </c>
-      <c r="O22">
+      <c r="S32" s="6"/>
+      <c r="T32" s="11">
         <v>1030</v>
       </c>
-      <c r="P22">
+      <c r="U32" s="10">
         <v>85</v>
       </c>
-      <c r="Q22">
+      <c r="V32" s="10">
         <v>150</v>
       </c>
-      <c r="R22">
+      <c r="W32" s="6">
         <v>970</v>
       </c>
-      <c r="S22">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11">
         <v>185</v>
       </c>
-      <c r="T22">
+      <c r="Z32" s="10">
         <v>5</v>
       </c>
-      <c r="U22">
+      <c r="AA32" s="10">
         <v>10</v>
       </c>
-      <c r="V22">
+      <c r="AB32" s="6">
         <v>400</v>
       </c>
-      <c r="W22">
+      <c r="AC32" s="19">
+        <f t="shared" si="0"/>
         <v>4.1322314049586778E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="5">
+        <v>1972</v>
+      </c>
+      <c r="B33" s="6">
         <v>2880</v>
       </c>
-      <c r="B23">
+      <c r="C33" s="10">
         <v>3095</v>
       </c>
-      <c r="C23">
+      <c r="D33" s="10"/>
+      <c r="E33" s="11">
         <v>2495</v>
       </c>
-      <c r="D23">
+      <c r="F33" s="10">
         <v>430</v>
       </c>
-      <c r="E23">
+      <c r="G33" s="10">
         <v>215</v>
       </c>
-      <c r="F23">
+      <c r="H33" s="10">
         <v>2710</v>
       </c>
-      <c r="G23">
+      <c r="I33" s="10"/>
+      <c r="J33" s="11">
         <v>1045</v>
       </c>
-      <c r="H23">
+      <c r="K33" s="10">
         <v>70</v>
       </c>
-      <c r="I23">
+      <c r="L33" s="10">
         <v>35</v>
       </c>
-      <c r="J23">
+      <c r="M33" s="11">
         <v>1080</v>
       </c>
-      <c r="K23">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11">
         <v>140</v>
       </c>
-      <c r="L23">
+      <c r="P33" s="10">
         <v>260</v>
       </c>
-      <c r="M23">
+      <c r="Q33" s="10">
         <v>5</v>
       </c>
-      <c r="N23">
+      <c r="R33" s="6">
         <v>400</v>
       </c>
-      <c r="O23">
+      <c r="S33" s="6"/>
+      <c r="T33" s="11">
         <v>1115</v>
       </c>
-      <c r="P23">
+      <c r="U33" s="10">
         <v>90</v>
       </c>
-      <c r="Q23">
+      <c r="V33" s="10">
         <v>155</v>
       </c>
-      <c r="R23">
+      <c r="W33" s="6">
         <v>1050</v>
       </c>
-      <c r="S23">
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11">
         <v>175</v>
       </c>
-      <c r="T23">
+      <c r="Z33" s="10">
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="AA33" s="10">
         <v>20</v>
       </c>
-      <c r="V23">
+      <c r="AB33" s="6">
         <v>385</v>
       </c>
-      <c r="W23">
+      <c r="AC33" s="19">
+        <f t="shared" si="0"/>
         <v>8.0160320641282558E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="5">
+        <v>1973</v>
+      </c>
+      <c r="B34" s="6">
         <v>3075</v>
       </c>
-      <c r="B24">
+      <c r="C34" s="10">
         <v>3260</v>
       </c>
-      <c r="C24">
+      <c r="D34" s="10"/>
+      <c r="E34" s="11">
         <v>2670</v>
       </c>
-      <c r="D24">
+      <c r="F34" s="10">
         <v>405</v>
       </c>
-      <c r="E24">
+      <c r="G34" s="10">
         <v>225</v>
       </c>
-      <c r="F24">
+      <c r="H34" s="10">
         <v>2855</v>
       </c>
-      <c r="G24">
+      <c r="I34" s="10"/>
+      <c r="J34" s="11">
         <v>1100</v>
       </c>
-      <c r="H24">
+      <c r="K34" s="10">
         <v>85</v>
       </c>
-      <c r="I24">
+      <c r="L34" s="10">
         <v>35</v>
       </c>
-      <c r="J24">
+      <c r="M34" s="11">
         <v>1155</v>
       </c>
-      <c r="K24">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11">
         <v>130</v>
       </c>
-      <c r="L24">
+      <c r="P34" s="10">
         <v>220</v>
       </c>
-      <c r="M24">
+      <c r="Q34" s="10">
         <v>5</v>
       </c>
-      <c r="N24">
+      <c r="R34" s="6">
         <v>340</v>
       </c>
-      <c r="O24">
+      <c r="S34" s="6"/>
+      <c r="T34" s="11">
         <v>1250</v>
       </c>
-      <c r="P24">
+      <c r="U34" s="10">
         <v>95</v>
       </c>
-      <c r="Q24">
+      <c r="V34" s="10">
         <v>160</v>
       </c>
-      <c r="R24">
+      <c r="W34" s="6">
         <v>1185</v>
       </c>
-      <c r="S24">
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11">
         <v>170</v>
       </c>
-      <c r="T24">
+      <c r="Z34" s="10">
         <v>5</v>
       </c>
-      <c r="U24">
+      <c r="AA34" s="10">
         <v>20</v>
       </c>
-      <c r="V24">
+      <c r="AB34" s="6">
         <v>405</v>
       </c>
-      <c r="W24">
+      <c r="AC34" s="19">
+        <f t="shared" si="0"/>
         <v>7.4906367041198503E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="5">
+        <v>1974</v>
+      </c>
+      <c r="B35" s="6">
         <v>3150</v>
       </c>
-      <c r="B25">
+      <c r="C35" s="10">
         <v>3205</v>
       </c>
-      <c r="C25">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11">
         <v>2725</v>
       </c>
-      <c r="D25">
+      <c r="F35" s="10">
         <v>325</v>
       </c>
-      <c r="E25">
+      <c r="G35" s="10">
         <v>275</v>
       </c>
-      <c r="F25">
+      <c r="H35" s="10">
         <v>2780</v>
       </c>
-      <c r="G25">
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
         <v>1105</v>
       </c>
-      <c r="H25">
+      <c r="K35" s="10">
         <v>70</v>
       </c>
-      <c r="I25">
+      <c r="L35" s="10">
         <v>30</v>
       </c>
-      <c r="J25">
+      <c r="M35" s="11">
         <v>1145</v>
       </c>
-      <c r="K25">
+      <c r="N35" s="11"/>
+      <c r="O35" s="11">
         <v>105</v>
       </c>
-      <c r="L25">
+      <c r="P35" s="10">
         <v>150</v>
       </c>
-      <c r="M25">
+      <c r="Q35" s="10">
         <v>10</v>
       </c>
-      <c r="N25">
+      <c r="R35" s="6">
         <v>240</v>
       </c>
-      <c r="O25">
+      <c r="S35" s="6"/>
+      <c r="T35" s="11">
         <v>1335</v>
       </c>
-      <c r="P25">
+      <c r="U35" s="10">
         <v>100</v>
       </c>
-      <c r="Q25">
+      <c r="V35" s="10">
         <v>210</v>
       </c>
-      <c r="R25">
+      <c r="W35" s="6">
         <v>1225</v>
       </c>
-      <c r="S25">
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11">
         <v>160</v>
       </c>
-      <c r="T25">
+      <c r="Z35" s="10">
         <v>5</v>
       </c>
-      <c r="U25">
+      <c r="AA35" s="10">
         <v>25</v>
       </c>
-      <c r="V25">
+      <c r="AB35" s="6">
         <v>425</v>
       </c>
-      <c r="W25">
+      <c r="AC35" s="19">
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="AD35" s="2"/>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="5">
+        <v>1975</v>
+      </c>
+      <c r="B36" s="6">
         <v>2645</v>
       </c>
-      <c r="B26">
+      <c r="C36" s="10">
         <v>2680</v>
       </c>
-      <c r="C26">
+      <c r="D36" s="10"/>
+      <c r="E36" s="11">
         <v>2195</v>
       </c>
-      <c r="D26">
+      <c r="F36" s="10">
         <v>270</v>
       </c>
-      <c r="E26">
+      <c r="G36" s="10">
         <v>235</v>
       </c>
-      <c r="F26">
+      <c r="H36" s="10">
         <v>2230</v>
       </c>
-      <c r="G26">
+      <c r="I36" s="10"/>
+      <c r="J36" s="11">
         <v>955</v>
       </c>
-      <c r="H26">
+      <c r="K36" s="10">
         <v>40</v>
       </c>
-      <c r="I26">
+      <c r="L36" s="10">
         <v>35</v>
       </c>
-      <c r="J26">
+      <c r="M36" s="11">
         <v>960</v>
       </c>
-      <c r="K26">
+      <c r="N36" s="11"/>
+      <c r="O36" s="11">
         <v>80</v>
       </c>
-      <c r="L26">
+      <c r="P36" s="10">
         <v>160</v>
       </c>
-      <c r="M26">
+      <c r="Q36" s="10">
         <v>10</v>
       </c>
-      <c r="N26">
+      <c r="R36" s="6">
         <v>230</v>
       </c>
-      <c r="O26">
+      <c r="S36" s="6"/>
+      <c r="T36" s="11">
         <v>1000</v>
       </c>
-      <c r="P26">
+      <c r="U36" s="10">
         <v>65</v>
       </c>
-      <c r="Q26">
+      <c r="V36" s="10">
         <v>175</v>
       </c>
-      <c r="R26">
+      <c r="W36" s="6">
         <v>885</v>
       </c>
-      <c r="S26">
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11">
         <v>150</v>
       </c>
-      <c r="T26">
+      <c r="Z36" s="10">
         <v>5</v>
       </c>
-      <c r="U26">
+      <c r="AA36" s="10">
         <v>15</v>
       </c>
-      <c r="V26">
+      <c r="AB36" s="6">
         <v>450</v>
       </c>
-      <c r="W26">
+      <c r="AC36" s="19">
+        <f t="shared" si="0"/>
         <v>6.8337129840546698E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="5">
+        <v>1976</v>
+      </c>
+      <c r="B37" s="6">
         <v>2945</v>
       </c>
-      <c r="B27">
+      <c r="C37" s="10">
         <v>3030</v>
       </c>
-      <c r="C27">
+      <c r="D37" s="10"/>
+      <c r="E37" s="11">
         <v>2475</v>
       </c>
-      <c r="D27">
+      <c r="F37" s="10">
         <v>330</v>
       </c>
-      <c r="E27">
+      <c r="G37" s="10">
         <v>250</v>
       </c>
-      <c r="F27">
+      <c r="H37" s="10">
         <v>2560</v>
       </c>
-      <c r="G27">
+      <c r="I37" s="10"/>
+      <c r="J37" s="11">
         <v>1060</v>
       </c>
-      <c r="H27">
+      <c r="K37" s="10">
         <v>50</v>
       </c>
-      <c r="I27">
+      <c r="L37" s="10">
         <v>40</v>
       </c>
-      <c r="J27">
+      <c r="M37" s="11">
         <v>1070</v>
       </c>
-      <c r="K27">
+      <c r="N37" s="11"/>
+      <c r="O37" s="11">
         <v>85</v>
       </c>
-      <c r="L27">
+      <c r="P37" s="10">
         <v>205</v>
       </c>
-      <c r="M27">
+      <c r="Q37" s="10">
         <v>10</v>
       </c>
-      <c r="N27">
+      <c r="R37" s="6">
         <v>275</v>
       </c>
-      <c r="O27">
+      <c r="S37" s="6"/>
+      <c r="T37" s="11">
         <v>1175</v>
       </c>
-      <c r="P27">
+      <c r="U37" s="10">
         <v>75</v>
       </c>
-      <c r="Q27">
+      <c r="V37" s="10">
         <v>175</v>
       </c>
-      <c r="R27">
+      <c r="W37" s="6">
         <v>1070</v>
       </c>
-      <c r="S27">
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11">
         <v>140</v>
       </c>
-      <c r="T27">
+      <c r="Z37" s="10">
         <v>5</v>
       </c>
-      <c r="U27">
+      <c r="AA37" s="10">
         <v>20</v>
       </c>
-      <c r="V27">
+      <c r="AB37" s="6">
         <v>470</v>
       </c>
-      <c r="W27">
+      <c r="AC37" s="19">
+        <f t="shared" si="0"/>
         <v>8.0808080808080808E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="5">
+        <v>1977</v>
+      </c>
+      <c r="B38" s="6">
         <v>3350</v>
       </c>
-      <c r="B28">
+      <c r="C38" s="10">
         <v>3455</v>
       </c>
-      <c r="C28">
+      <c r="D38" s="10"/>
+      <c r="E38" s="11">
         <v>2540</v>
       </c>
-      <c r="D28">
+      <c r="F38" s="10">
         <v>350</v>
       </c>
-      <c r="E28">
+      <c r="G38" s="10">
         <v>245</v>
       </c>
-      <c r="F28">
+      <c r="H38" s="10">
         <v>2645</v>
       </c>
-      <c r="G28">
+      <c r="I38" s="10"/>
+      <c r="J38" s="11">
         <v>1105</v>
       </c>
-      <c r="H28">
+      <c r="K38" s="10">
         <v>55</v>
       </c>
-      <c r="I28">
+      <c r="L38" s="10">
         <v>40</v>
       </c>
-      <c r="J28">
+      <c r="M38" s="11">
         <v>1125</v>
       </c>
-      <c r="K28">
+      <c r="N38" s="11"/>
+      <c r="O38" s="11">
         <v>90</v>
       </c>
-      <c r="L28">
+      <c r="P38" s="10">
         <v>200</v>
       </c>
-      <c r="M28">
+      <c r="Q38" s="10">
         <v>10</v>
       </c>
-      <c r="N28">
+      <c r="R38" s="6">
         <v>280</v>
       </c>
-      <c r="O28">
+      <c r="S38" s="6"/>
+      <c r="T38" s="11">
         <v>1175</v>
       </c>
-      <c r="P28">
+      <c r="U38" s="10">
         <v>95</v>
       </c>
-      <c r="Q28">
+      <c r="V38" s="10">
         <v>175</v>
       </c>
-      <c r="R28">
+      <c r="W38" s="6">
         <v>1095</v>
       </c>
-      <c r="S28">
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11">
         <v>145</v>
       </c>
-      <c r="T28">
+      <c r="Z38" s="10">
         <v>5</v>
       </c>
-      <c r="U28">
+      <c r="AA38" s="10">
         <v>20</v>
       </c>
-      <c r="V28">
+      <c r="AB38" s="6">
         <v>810</v>
       </c>
-      <c r="W28">
+      <c r="AC38" s="19">
+        <f t="shared" si="0"/>
         <v>7.874015748031496E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="5">
+        <v>1978</v>
+      </c>
+      <c r="B39" s="6">
         <v>3965</v>
       </c>
-      <c r="B29">
+      <c r="C39" s="10">
         <v>4070</v>
       </c>
-      <c r="C29">
+      <c r="D39" s="10"/>
+      <c r="E39" s="11">
         <v>2725</v>
       </c>
-      <c r="D29">
+      <c r="F39" s="10">
         <v>390</v>
       </c>
-      <c r="E29">
+      <c r="G39" s="10">
         <v>285</v>
       </c>
-      <c r="F29">
+      <c r="H39" s="10">
         <v>2830</v>
       </c>
-      <c r="G29">
+      <c r="I39" s="10"/>
+      <c r="J39" s="11">
         <v>1160</v>
       </c>
-      <c r="H29">
+      <c r="K39" s="10">
         <v>60</v>
       </c>
-      <c r="I29">
+      <c r="L39" s="10">
         <v>65</v>
       </c>
-      <c r="J29">
+      <c r="M39" s="11">
         <v>1155</v>
       </c>
-      <c r="K29">
+      <c r="N39" s="11"/>
+      <c r="O39" s="11">
         <v>90</v>
       </c>
-      <c r="L29">
+      <c r="P39" s="10">
         <v>215</v>
       </c>
-      <c r="M29">
+      <c r="Q39" s="10">
         <v>20</v>
       </c>
-      <c r="N29">
+      <c r="R39" s="6">
         <v>290</v>
       </c>
-      <c r="O29">
+      <c r="S39" s="6"/>
+      <c r="T39" s="11">
         <v>1295</v>
       </c>
-      <c r="P29">
+      <c r="U39" s="10">
         <v>110</v>
       </c>
-      <c r="Q29">
+      <c r="V39" s="10">
         <v>180</v>
       </c>
-      <c r="R29">
+      <c r="W39" s="6">
         <v>1225</v>
       </c>
-      <c r="S29">
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11">
         <v>155</v>
       </c>
-      <c r="T29">
+      <c r="Z39" s="10">
         <v>5</v>
       </c>
-      <c r="U29">
+      <c r="AA39" s="10">
         <v>25</v>
       </c>
-      <c r="V29">
+      <c r="AB39" s="6">
         <v>1240</v>
       </c>
-      <c r="W29">
+      <c r="AC39" s="19">
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="AD39" s="2"/>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="5">
+        <v>1979</v>
+      </c>
+      <c r="B40" s="6">
         <v>4615</v>
       </c>
-      <c r="B30">
+      <c r="C40" s="10">
         <v>4665</v>
       </c>
-      <c r="C30">
+      <c r="D40" s="10"/>
+      <c r="E40" s="11">
         <v>2820</v>
       </c>
-      <c r="D30">
+      <c r="F40" s="10">
         <v>350</v>
       </c>
-      <c r="E30">
+      <c r="G40" s="10">
         <v>300</v>
       </c>
-      <c r="F30">
+      <c r="H40" s="10">
         <v>2870</v>
       </c>
-      <c r="G30">
+      <c r="I40" s="10"/>
+      <c r="J40" s="11">
         <v>1205</v>
       </c>
-      <c r="H30">
+      <c r="K40" s="10">
         <v>60</v>
       </c>
-      <c r="I30">
+      <c r="L40" s="10">
         <v>60</v>
       </c>
-      <c r="J30">
+      <c r="M40" s="11">
         <v>1210</v>
       </c>
-      <c r="K30">
+      <c r="N40" s="11"/>
+      <c r="O40" s="11">
         <v>90</v>
       </c>
-      <c r="L30">
+      <c r="P40" s="10">
         <v>180</v>
       </c>
-      <c r="M30">
+      <c r="Q40" s="10">
         <v>15</v>
       </c>
-      <c r="N30">
+      <c r="R40" s="6">
         <v>260</v>
       </c>
-      <c r="O30">
+      <c r="S40" s="6"/>
+      <c r="T40" s="11">
         <v>1335</v>
       </c>
-      <c r="P30">
+      <c r="U40" s="10">
         <v>100</v>
       </c>
-      <c r="Q30">
+      <c r="V40" s="10">
         <v>200</v>
       </c>
-      <c r="R30">
+      <c r="W40" s="6">
         <v>1240</v>
       </c>
-      <c r="S30">
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11">
         <v>165</v>
       </c>
-      <c r="T30">
+      <c r="Z40" s="10">
         <v>5</v>
       </c>
-      <c r="U30">
+      <c r="AA40" s="10">
         <v>25</v>
       </c>
-      <c r="V30">
+      <c r="AB40" s="6">
         <v>1795</v>
       </c>
-      <c r="W30">
+      <c r="AC40" s="19">
+        <f t="shared" si="0"/>
         <v>8.8652482269503553E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="AD40" s="2"/>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="5">
+        <v>1980</v>
+      </c>
+      <c r="B41" s="6">
         <v>5355</v>
       </c>
-      <c r="B31">
+      <c r="C41" s="10">
         <v>5205</v>
       </c>
-      <c r="C31">
+      <c r="D41" s="10"/>
+      <c r="E41" s="11">
         <v>2825</v>
       </c>
-      <c r="D31">
+      <c r="F41" s="10">
         <v>255</v>
       </c>
-      <c r="E31">
+      <c r="G41" s="10">
         <v>405</v>
       </c>
-      <c r="F31">
+      <c r="H41" s="10">
         <v>2675</v>
       </c>
-      <c r="G31">
+      <c r="I41" s="10"/>
+      <c r="J41" s="11">
         <v>1175</v>
       </c>
-      <c r="H31">
+      <c r="K41" s="10">
         <v>50</v>
       </c>
-      <c r="I31">
+      <c r="L41" s="10">
         <v>80</v>
       </c>
-      <c r="J31">
+      <c r="M41" s="11">
         <v>1140</v>
       </c>
-      <c r="K31">
+      <c r="N41" s="11"/>
+      <c r="O41" s="11">
         <v>80</v>
       </c>
-      <c r="L31">
+      <c r="P41" s="10">
         <v>110</v>
       </c>
-      <c r="M31">
+      <c r="Q41" s="10">
         <v>15</v>
       </c>
-      <c r="N31">
+      <c r="R41" s="6">
         <v>175</v>
       </c>
-      <c r="O31">
+      <c r="S41" s="6"/>
+      <c r="T41" s="11">
         <v>1370</v>
       </c>
-      <c r="P31">
+      <c r="U41" s="10">
         <v>90</v>
       </c>
-      <c r="Q31">
+      <c r="V41" s="10">
         <v>275</v>
       </c>
-      <c r="R31">
+      <c r="W41" s="6">
         <v>1185</v>
       </c>
-      <c r="S31">
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11">
         <v>170</v>
       </c>
-      <c r="T31">
+      <c r="Z41" s="10">
         <v>5</v>
       </c>
-      <c r="U31">
+      <c r="AA41" s="10">
         <v>30</v>
       </c>
-      <c r="V31">
+      <c r="AB41" s="6">
         <v>2530</v>
       </c>
-      <c r="W31">
+      <c r="AC41" s="19">
+        <f t="shared" si="0"/>
         <v>1.0619469026548672E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="5">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="6">
         <v>5230</v>
       </c>
-      <c r="B32">
+      <c r="C42" s="10">
         <v>5130</v>
       </c>
-      <c r="C32">
+      <c r="D42" s="10"/>
+      <c r="E42" s="11">
         <v>2640</v>
       </c>
-      <c r="D32">
+      <c r="F42" s="10">
         <v>280</v>
       </c>
-      <c r="E32">
+      <c r="G42" s="10">
         <v>375</v>
       </c>
-      <c r="F32">
+      <c r="H42" s="10">
         <v>2540</v>
       </c>
-      <c r="G32">
+      <c r="I42" s="10"/>
+      <c r="J42" s="11">
         <v>1030</v>
       </c>
-      <c r="H32">
+      <c r="K42" s="10">
         <v>50</v>
       </c>
-      <c r="I32">
+      <c r="L42" s="10">
         <v>80</v>
       </c>
-      <c r="J32">
+      <c r="M42" s="11">
         <v>1000</v>
       </c>
-      <c r="K32">
+      <c r="N42" s="11"/>
+      <c r="O42" s="11">
         <v>75</v>
       </c>
-      <c r="L32">
+      <c r="P42" s="10">
         <v>135</v>
       </c>
-      <c r="M32">
+      <c r="Q42" s="10">
         <v>15</v>
       </c>
-      <c r="N32">
+      <c r="R42" s="6">
         <v>195</v>
       </c>
-      <c r="O32">
+      <c r="S42" s="6"/>
+      <c r="T42" s="11">
         <v>1330</v>
       </c>
-      <c r="P32">
+      <c r="U42" s="10">
         <v>95</v>
       </c>
-      <c r="Q32">
+      <c r="V42" s="10">
         <v>260</v>
       </c>
-      <c r="R32">
+      <c r="W42" s="6">
         <v>1165</v>
       </c>
-      <c r="S32">
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11">
         <v>180</v>
       </c>
-      <c r="T32">
+      <c r="Z42" s="10">
         <v>5</v>
       </c>
-      <c r="U32">
+      <c r="AA42" s="10">
         <v>25</v>
       </c>
-      <c r="V32">
+      <c r="AB42" s="6">
         <v>2590</v>
       </c>
-      <c r="W32">
+      <c r="AC42" s="19">
+        <f t="shared" si="0"/>
         <v>9.46969696969697E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="5">
+        <v>1982</v>
+      </c>
+      <c r="B43" s="6">
         <v>5200</v>
       </c>
-      <c r="B33">
+      <c r="C43" s="10">
         <v>5090</v>
       </c>
-      <c r="C33">
+      <c r="D43" s="10"/>
+      <c r="E43" s="11">
         <v>2465</v>
       </c>
-      <c r="D33">
+      <c r="F43" s="10">
         <v>230</v>
       </c>
-      <c r="E33">
+      <c r="G43" s="10">
         <v>340</v>
       </c>
-      <c r="F33">
+      <c r="H43" s="10">
         <v>2355</v>
       </c>
-      <c r="G33">
+      <c r="I43" s="10"/>
+      <c r="J43" s="11">
         <v>855</v>
       </c>
-      <c r="H33">
+      <c r="K43" s="10">
         <v>35</v>
       </c>
-      <c r="I33">
+      <c r="L43" s="10">
         <v>65</v>
       </c>
-      <c r="J33">
+      <c r="M43" s="11">
         <v>825</v>
       </c>
-      <c r="K33">
+      <c r="N43" s="11"/>
+      <c r="O43" s="11">
         <v>70</v>
       </c>
-      <c r="L33">
+      <c r="P43" s="10">
         <v>105</v>
       </c>
-      <c r="M33">
+      <c r="Q43" s="10">
         <v>10</v>
       </c>
-      <c r="N33">
+      <c r="R43" s="6">
         <v>160</v>
       </c>
-      <c r="O33">
+      <c r="S43" s="6"/>
+      <c r="T43" s="11">
         <v>1330</v>
       </c>
-      <c r="P33">
+      <c r="U43" s="10">
         <v>85</v>
       </c>
-      <c r="Q33">
+      <c r="V43" s="10">
         <v>245</v>
       </c>
-      <c r="R33">
+      <c r="W43" s="6">
         <v>1175</v>
       </c>
-      <c r="S33">
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11">
         <v>185</v>
       </c>
-      <c r="T33">
+      <c r="Z43" s="10">
         <v>5</v>
       </c>
-      <c r="U33">
+      <c r="AA43" s="10">
         <v>20</v>
       </c>
-      <c r="V33">
+      <c r="AB43" s="6">
         <v>2735</v>
       </c>
-      <c r="W33">
+      <c r="AC43" s="19">
+        <f t="shared" si="0"/>
         <v>8.1135902636916835E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="AD43" s="2"/>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="5">
+        <v>1983</v>
+      </c>
+      <c r="B44" s="6">
         <v>5420</v>
       </c>
-      <c r="B34">
+      <c r="C44" s="10">
         <v>5330</v>
       </c>
-      <c r="C34">
+      <c r="D44" s="10"/>
+      <c r="E44" s="11">
         <v>2780</v>
       </c>
-      <c r="D34">
+      <c r="F44" s="10">
         <v>305</v>
       </c>
-      <c r="E34">
+      <c r="G44" s="10">
         <v>395</v>
       </c>
-      <c r="F34">
+      <c r="H44" s="10">
         <v>2690</v>
       </c>
-      <c r="G34">
+      <c r="I44" s="10"/>
+      <c r="J44" s="11">
         <v>935</v>
       </c>
-      <c r="H34">
+      <c r="K44" s="10">
         <v>45</v>
       </c>
-      <c r="I34">
+      <c r="L44" s="10">
         <v>85</v>
       </c>
-      <c r="J34">
+      <c r="M44" s="11">
         <v>895</v>
       </c>
-      <c r="K34">
+      <c r="N44" s="11"/>
+      <c r="O44" s="11">
         <v>75</v>
       </c>
-      <c r="L34">
+      <c r="P44" s="10">
         <v>150</v>
       </c>
-      <c r="M34">
+      <c r="Q44" s="10">
         <v>15</v>
       </c>
-      <c r="N34">
+      <c r="R44" s="6">
         <v>210</v>
       </c>
-      <c r="O34">
+      <c r="S44" s="6"/>
+      <c r="T44" s="11">
         <v>1550</v>
       </c>
-      <c r="P34">
+      <c r="U44" s="10">
         <v>110</v>
       </c>
-      <c r="Q34">
+      <c r="V44" s="10">
         <v>270</v>
       </c>
-      <c r="R34">
+      <c r="W44" s="6">
         <v>1385</v>
       </c>
-      <c r="S34">
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11">
         <v>195</v>
       </c>
-      <c r="T34">
+      <c r="Z44" s="10">
         <v>5</v>
       </c>
-      <c r="U34">
+      <c r="AA44" s="10">
         <v>25</v>
       </c>
-      <c r="V34">
+      <c r="AB44" s="6">
         <v>2640</v>
       </c>
-      <c r="W34">
+      <c r="AC44" s="19">
+        <f t="shared" si="0"/>
         <v>8.9928057553956831E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="5">
+        <v>1984</v>
+      </c>
+      <c r="B45" s="11">
         <v>5920</v>
       </c>
-      <c r="B35">
+      <c r="C45" s="10">
         <v>5850</v>
       </c>
-      <c r="C35">
+      <c r="D45" s="10"/>
+      <c r="E45" s="11">
         <v>2935</v>
       </c>
-      <c r="D35">
+      <c r="F45" s="10">
         <v>320</v>
       </c>
-      <c r="E35">
+      <c r="G45" s="10">
         <v>390</v>
       </c>
-      <c r="F35">
+      <c r="H45" s="10">
         <v>2865</v>
       </c>
-      <c r="G35">
+      <c r="I45" s="10"/>
+      <c r="J45" s="11">
         <v>1040</v>
       </c>
-      <c r="H35">
+      <c r="K45" s="10">
         <v>55</v>
       </c>
-      <c r="I35">
+      <c r="L45" s="10">
         <v>85</v>
       </c>
-      <c r="J35">
+      <c r="M45" s="11">
         <v>1005</v>
       </c>
-      <c r="K35">
+      <c r="N45" s="10"/>
+      <c r="O45" s="11">
         <v>75</v>
       </c>
-      <c r="L35">
+      <c r="P45" s="10">
         <v>135</v>
       </c>
-      <c r="M35">
+      <c r="Q45" s="10">
         <v>15</v>
       </c>
-      <c r="N35">
+      <c r="R45" s="6">
         <v>195</v>
       </c>
-      <c r="O35">
+      <c r="S45" s="6"/>
+      <c r="T45" s="11">
         <v>1595</v>
       </c>
-      <c r="P35">
+      <c r="U45" s="10">
         <v>130</v>
       </c>
-      <c r="Q35">
+      <c r="V45" s="10">
         <v>265</v>
       </c>
-      <c r="R35">
+      <c r="W45" s="6">
         <v>1460</v>
       </c>
-      <c r="S35">
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11">
         <v>205</v>
       </c>
-      <c r="T35">
+      <c r="Z45" s="10">
         <v>5</v>
       </c>
-      <c r="U35">
+      <c r="AA45" s="10">
         <v>25</v>
       </c>
-      <c r="V35">
+      <c r="AB45" s="6">
         <v>2985</v>
       </c>
-      <c r="W35">
+      <c r="AC45" s="19">
+        <f t="shared" si="0"/>
         <v>8.5178875638841564E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="5">
+        <v>1985</v>
+      </c>
+      <c r="B46" s="6">
         <v>5670</v>
       </c>
-      <c r="B36">
+      <c r="C46" s="10">
         <v>5670</v>
       </c>
-      <c r="C36">
+      <c r="D46" s="10"/>
+      <c r="E46" s="11">
         <v>2825</v>
       </c>
-      <c r="D36">
+      <c r="F46" s="10">
         <v>375</v>
       </c>
-      <c r="E36">
+      <c r="G46" s="10">
         <v>375</v>
       </c>
-      <c r="F36">
+      <c r="H46" s="10">
         <v>2825</v>
       </c>
-      <c r="G36">
+      <c r="I46" s="10"/>
+      <c r="J46" s="11">
         <v>990</v>
       </c>
-      <c r="H36">
+      <c r="K46" s="10">
         <v>60</v>
       </c>
-      <c r="I36">
+      <c r="L46" s="10">
         <v>70</v>
       </c>
-      <c r="J36">
+      <c r="M46" s="11">
         <v>980</v>
       </c>
-      <c r="K36">
+      <c r="N46" s="11"/>
+      <c r="O46" s="11">
         <v>60</v>
       </c>
-      <c r="L36">
+      <c r="P46" s="10">
         <v>155</v>
       </c>
-      <c r="M36">
+      <c r="Q46" s="10">
         <v>10</v>
       </c>
-      <c r="N36">
+      <c r="R46" s="6">
         <v>205</v>
       </c>
-      <c r="O36">
+      <c r="S46" s="6"/>
+      <c r="T46" s="11">
         <v>1540</v>
       </c>
-      <c r="P36">
+      <c r="U46" s="10">
         <v>155</v>
       </c>
-      <c r="Q36">
+      <c r="V46" s="10">
         <v>270</v>
       </c>
-      <c r="R36">
+      <c r="W46" s="6">
         <v>1425</v>
       </c>
-      <c r="S36">
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11">
         <v>210</v>
       </c>
-      <c r="T36">
+      <c r="Z46" s="10">
         <v>5</v>
       </c>
-      <c r="U36">
+      <c r="AA46" s="10">
         <v>25</v>
       </c>
-      <c r="V36">
+      <c r="AB46" s="6">
         <v>2845</v>
       </c>
-      <c r="W36">
+      <c r="AC46" s="19">
+        <f t="shared" si="0"/>
         <v>8.8495575221238937E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="5">
+        <v>1986</v>
+      </c>
+      <c r="B47" s="6">
         <v>5815</v>
       </c>
-      <c r="B37">
+      <c r="C47" s="10">
         <v>5750</v>
       </c>
-      <c r="C37">
+      <c r="D47" s="10"/>
+      <c r="E47" s="11">
         <v>3250</v>
       </c>
-      <c r="D37">
+      <c r="F47" s="10">
         <v>395</v>
       </c>
-      <c r="E37">
+      <c r="G47" s="10">
         <v>460</v>
       </c>
-      <c r="F37">
+      <c r="H47" s="10">
         <v>3180</v>
       </c>
-      <c r="G37">
+      <c r="I47" s="10"/>
+      <c r="J47" s="11">
         <v>1195</v>
       </c>
-      <c r="H37">
+      <c r="K47" s="10">
         <v>55</v>
       </c>
-      <c r="I37">
+      <c r="L47" s="10">
         <v>90</v>
       </c>
-      <c r="J37">
+      <c r="M47" s="11">
         <v>1160</v>
       </c>
-      <c r="K37">
+      <c r="N47" s="10"/>
+      <c r="O47" s="11">
         <v>65</v>
       </c>
-      <c r="L37">
+      <c r="P47" s="10">
         <v>165</v>
       </c>
-      <c r="M37">
+      <c r="Q47" s="10">
         <v>15</v>
       </c>
-      <c r="N37">
+      <c r="R47" s="6">
         <v>220</v>
       </c>
-      <c r="O37">
+      <c r="S47" s="6"/>
+      <c r="T47" s="11">
         <v>1740</v>
       </c>
-      <c r="P37">
+      <c r="U47" s="10">
         <v>165</v>
       </c>
-      <c r="Q37">
+      <c r="V47" s="10">
         <v>325</v>
       </c>
-      <c r="R37">
+      <c r="W47" s="6">
         <v>1580</v>
       </c>
-      <c r="S37">
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11">
         <v>220</v>
       </c>
-      <c r="T37">
+      <c r="Z47" s="10">
         <v>5</v>
       </c>
-      <c r="U37">
+      <c r="AA47" s="10">
         <v>30</v>
       </c>
-      <c r="V37">
+      <c r="AB47" s="6">
         <v>2570</v>
       </c>
-      <c r="W37">
+      <c r="AC47" s="19">
+        <f t="shared" si="0"/>
         <v>9.2307692307692316E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="6">
         <v>5775</v>
       </c>
-      <c r="B38">
+      <c r="C48" s="10">
         <v>5660</v>
       </c>
-      <c r="C38">
+      <c r="D48" s="10"/>
+      <c r="E48" s="11">
         <v>3270</v>
       </c>
-      <c r="D38">
+      <c r="F48" s="10">
         <v>435</v>
       </c>
-      <c r="E38">
+      <c r="G48" s="10">
         <v>550</v>
       </c>
-      <c r="F38">
+      <c r="H48" s="10">
         <v>3155</v>
       </c>
-      <c r="G38">
+      <c r="I48" s="10"/>
+      <c r="J48" s="11">
         <v>1240</v>
       </c>
-      <c r="H38">
+      <c r="K48" s="10">
         <v>85</v>
       </c>
-      <c r="I38">
+      <c r="L48" s="10">
         <v>130</v>
       </c>
-      <c r="J38">
+      <c r="M48" s="11">
         <v>1195</v>
       </c>
-      <c r="K38">
+      <c r="N48" s="10"/>
+      <c r="O48" s="11">
         <v>70</v>
       </c>
-      <c r="L38">
+      <c r="P48" s="10">
         <v>175</v>
       </c>
-      <c r="M38">
+      <c r="Q48" s="10">
         <v>20</v>
       </c>
-      <c r="N38">
+      <c r="R48" s="6">
         <v>225</v>
       </c>
-      <c r="O38">
+      <c r="S48" s="6"/>
+      <c r="T48" s="11">
         <v>1710</v>
       </c>
-      <c r="P38">
+      <c r="U48" s="10">
         <v>175</v>
       </c>
-      <c r="Q38">
+      <c r="V48" s="10">
         <v>370</v>
       </c>
-      <c r="R38">
+      <c r="W48" s="6">
         <v>1515</v>
       </c>
-      <c r="S38">
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11">
         <v>220</v>
       </c>
-      <c r="T38">
+      <c r="Z48" s="10">
         <v>5</v>
       </c>
-      <c r="U38">
+      <c r="AA48" s="10">
         <v>30</v>
       </c>
-      <c r="V38">
+      <c r="AB48" s="6">
         <v>2505</v>
       </c>
-      <c r="W38">
+      <c r="AC48" s="19">
+        <f t="shared" si="0"/>
         <v>9.1743119266055051E-3</v>
       </c>
+      <c r="AD48" s="2"/>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" s="16"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="13"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="13"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
+      <c r="T50" s="23"/>
+      <c r="U50" s="23"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="27"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="27"/>
+      <c r="Z57" s="27"/>
+      <c r="AA57" s="27"/>
+      <c r="AB57" s="27"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="26"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="27"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="27"/>
+      <c r="W59" s="27"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="27"/>
+      <c r="S60" s="27"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="27"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27"/>
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="27"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="27"/>
+      <c r="S61" s="27"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="27"/>
+      <c r="W61" s="27"/>
+      <c r="X61" s="27"/>
+      <c r="Y61" s="27"/>
+      <c r="Z61" s="27"/>
+      <c r="AA61" s="27"/>
+      <c r="AB61" s="27"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+    </row>
+    <row r="62" spans="1:30">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="27"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="27"/>
+      <c r="W62" s="27"/>
+      <c r="X62" s="27"/>
+      <c r="Y62" s="27"/>
+      <c r="Z62" s="27"/>
+      <c r="AA62" s="27"/>
+      <c r="AB62" s="27"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="27"/>
+      <c r="S63" s="27"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="27"/>
+      <c r="W63" s="27"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="27"/>
+      <c r="Z63" s="27"/>
+      <c r="AA63" s="27"/>
+      <c r="AB63" s="27"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="27"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="27"/>
+      <c r="W64" s="27"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="27"/>
+      <c r="Z64" s="27"/>
+      <c r="AA64" s="27"/>
+      <c r="AB64" s="27"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+    </row>
+    <row r="65" spans="1:30">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="27"/>
+      <c r="W65" s="27"/>
+      <c r="X65" s="27"/>
+      <c r="Y65" s="27"/>
+      <c r="Z65" s="27"/>
+      <c r="AA65" s="27"/>
+      <c r="AB65" s="27"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="27"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="27"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="27"/>
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="27"/>
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="27"/>
+      <c r="S67" s="27"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="27"/>
+      <c r="W67" s="27"/>
+      <c r="X67" s="27"/>
+      <c r="Y67" s="27"/>
+      <c r="Z67" s="27"/>
+      <c r="AA67" s="27"/>
+      <c r="AB67" s="27"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="27"/>
+      <c r="W68" s="27"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="27"/>
+      <c r="Z68" s="27"/>
+      <c r="AA68" s="27"/>
+      <c r="AB68" s="27"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="27"/>
+      <c r="S69" s="27"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="27"/>
+      <c r="W69" s="27"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="27"/>
+      <c r="Z69" s="27"/>
+      <c r="AA69" s="27"/>
+      <c r="AB69" s="27"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+    </row>
+    <row r="70" spans="1:30">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="27"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="27"/>
+      <c r="S70" s="27"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="27"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+    </row>
+    <row r="71" spans="1:30">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="27"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="27"/>
+      <c r="S71" s="27"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="27"/>
+      <c r="W71" s="27"/>
+      <c r="X71" s="27"/>
+      <c r="Y71" s="27"/>
+      <c r="Z71" s="27"/>
+      <c r="AA71" s="27"/>
+      <c r="AB71" s="27"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+    </row>
+    <row r="72" spans="1:30">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="27"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="27"/>
+      <c r="W72" s="27"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="27"/>
+      <c r="Z72" s="27"/>
+      <c r="AA72" s="27"/>
+      <c r="AB72" s="27"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+    </row>
+    <row r="73" spans="1:30">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="27"/>
+      <c r="S73" s="27"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="27"/>
+      <c r="W73" s="27"/>
+      <c r="X73" s="27"/>
+      <c r="Y73" s="27"/>
+      <c r="Z73" s="27"/>
+      <c r="AA73" s="27"/>
+      <c r="AB73" s="27"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+    </row>
+    <row r="74" spans="1:30">
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="27"/>
+      <c r="W74" s="27"/>
+      <c r="X74" s="27"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="P50:W50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="P52:W52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:M54"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A2:AB2"/>
+    <mergeCell ref="A3:AB3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="Z6:AA6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>